--- a/va_facility_data_2025-02-20/Camden VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Camden%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Camden VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Camden%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R33b094ab3c3442e59f55cb6b2d52152d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4534015e3f7744e4b2bbc148fe31e990"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R641d44ba7b004fe78659aa7fa61ac77b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0eb995d553e648c39052cfdaaf1fb96d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R18a91dede1e74979818c2185e5351c22"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3d34f23a034f43e9aedd3442d27bcdff"/>
   </x:sheets>
 </x:workbook>
 </file>
